--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H2">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I2">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J2">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.633267873615</v>
+        <v>108.2550863333333</v>
       </c>
       <c r="N2">
-        <v>105.633267873615</v>
+        <v>324.765259</v>
       </c>
       <c r="O2">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="P2">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="Q2">
-        <v>237.8967926338036</v>
+        <v>364.947165435034</v>
       </c>
       <c r="R2">
-        <v>237.8967926338036</v>
+        <v>3284.524488915306</v>
       </c>
       <c r="S2">
-        <v>0.003547486101362652</v>
+        <v>0.005130255355021873</v>
       </c>
       <c r="T2">
-        <v>0.003547486101362652</v>
+        <v>0.005130255355021873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H3">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I3">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J3">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>281.278201979299</v>
+        <v>284.3623303333333</v>
       </c>
       <c r="N3">
-        <v>281.278201979299</v>
+        <v>853.0869909999999</v>
       </c>
       <c r="O3">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="P3">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="Q3">
-        <v>633.4669317315748</v>
+        <v>958.6360320484659</v>
       </c>
       <c r="R3">
-        <v>633.4669317315748</v>
+        <v>8627.724288436193</v>
       </c>
       <c r="S3">
-        <v>0.009446176684902855</v>
+        <v>0.01347605380376368</v>
       </c>
       <c r="T3">
-        <v>0.009446176684902855</v>
+        <v>0.01347605380376368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H4">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I4">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J4">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>177.557448322067</v>
+        <v>178.4792176666666</v>
       </c>
       <c r="N4">
-        <v>177.557448322067</v>
+        <v>535.437653</v>
       </c>
       <c r="O4">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="P4">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="Q4">
-        <v>399.8773143570695</v>
+        <v>601.685212055078</v>
       </c>
       <c r="R4">
-        <v>399.8773143570695</v>
+        <v>5415.166908495701</v>
       </c>
       <c r="S4">
-        <v>0.005962918622091418</v>
+        <v>0.008458207306538269</v>
       </c>
       <c r="T4">
-        <v>0.005962918622091418</v>
+        <v>0.008458207306538269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H5">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I5">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J5">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>158.530890115239</v>
+        <v>165.0353776666667</v>
       </c>
       <c r="N5">
-        <v>158.530890115239</v>
+        <v>495.106133</v>
       </c>
       <c r="O5">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="P5">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="Q5">
-        <v>357.0275827963616</v>
+        <v>556.363634411558</v>
       </c>
       <c r="R5">
-        <v>357.0275827963616</v>
+        <v>5007.272709704022</v>
       </c>
       <c r="S5">
-        <v>0.005323948985402283</v>
+        <v>0.007821097915302024</v>
       </c>
       <c r="T5">
-        <v>0.005323948985402283</v>
+        <v>0.007821097915302024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H6">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I6">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J6">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>117.679866219542</v>
+        <v>125.0343833333333</v>
       </c>
       <c r="N6">
-        <v>117.679866219542</v>
+        <v>375.10315</v>
       </c>
       <c r="O6">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="P6">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="Q6">
-        <v>265.0269493195985</v>
+        <v>421.5131623369</v>
       </c>
       <c r="R6">
-        <v>265.0269493195985</v>
+        <v>3793.6184610321</v>
       </c>
       <c r="S6">
-        <v>0.003952047477348907</v>
+        <v>0.005925433495868698</v>
       </c>
       <c r="T6">
-        <v>0.003952047477348907</v>
+        <v>0.005925433495868698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H7">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I7">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J7">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.633267873615</v>
+        <v>108.2550863333333</v>
       </c>
       <c r="N7">
-        <v>105.633267873615</v>
+        <v>324.765259</v>
       </c>
       <c r="O7">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="P7">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="Q7">
-        <v>6255.879569877568</v>
+        <v>6417.112386801317</v>
       </c>
       <c r="R7">
-        <v>6255.879569877568</v>
+        <v>57754.01148121186</v>
       </c>
       <c r="S7">
-        <v>0.09328686435928774</v>
+        <v>0.09020874335856476</v>
       </c>
       <c r="T7">
-        <v>0.09328686435928774</v>
+        <v>0.09020874335856476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H8">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I8">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J8">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>281.278201979299</v>
+        <v>284.3623303333333</v>
       </c>
       <c r="N8">
-        <v>281.278201979299</v>
+        <v>853.0869909999999</v>
       </c>
       <c r="O8">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="P8">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="Q8">
-        <v>16658.03390007321</v>
+        <v>16856.34452965046</v>
       </c>
       <c r="R8">
-        <v>16658.03390007321</v>
+        <v>151707.1007668541</v>
       </c>
       <c r="S8">
-        <v>0.2484024399080557</v>
+        <v>0.2369585517570684</v>
       </c>
       <c r="T8">
-        <v>0.2484024399080557</v>
+        <v>0.2369585517570684</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H9">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I9">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J9">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>177.557448322067</v>
+        <v>178.4792176666666</v>
       </c>
       <c r="N9">
-        <v>177.557448322067</v>
+        <v>535.437653</v>
       </c>
       <c r="O9">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="P9">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="Q9">
-        <v>10515.41844531973</v>
+        <v>10579.83728310707</v>
       </c>
       <c r="R9">
-        <v>10515.41844531973</v>
+        <v>95218.53554796368</v>
       </c>
       <c r="S9">
-        <v>0.1568045553359161</v>
+        <v>0.1487263692327055</v>
       </c>
       <c r="T9">
-        <v>0.1568045553359161</v>
+        <v>0.1487263692327055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H10">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I10">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J10">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>158.530890115239</v>
+        <v>165.0353776666667</v>
       </c>
       <c r="N10">
-        <v>158.530890115239</v>
+        <v>495.106133</v>
       </c>
       <c r="O10">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="P10">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="Q10">
-        <v>9388.615694943846</v>
+        <v>9782.917386664196</v>
       </c>
       <c r="R10">
-        <v>9388.615694943846</v>
+        <v>88046.25647997776</v>
       </c>
       <c r="S10">
-        <v>0.1400018189405215</v>
+        <v>0.1375236446920834</v>
       </c>
       <c r="T10">
-        <v>0.1400018189405215</v>
+        <v>0.1375236446920834</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H11">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I11">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J11">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.679866219542</v>
+        <v>125.0343833333333</v>
       </c>
       <c r="N11">
-        <v>117.679866219542</v>
+        <v>375.10315</v>
       </c>
       <c r="O11">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="P11">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="Q11">
-        <v>6969.310764385085</v>
+        <v>7411.750498205822</v>
       </c>
       <c r="R11">
-        <v>6969.310764385085</v>
+        <v>66705.7544838524</v>
       </c>
       <c r="S11">
-        <v>0.1039254577542386</v>
+        <v>0.1041908974362902</v>
       </c>
       <c r="T11">
-        <v>0.1039254577542386</v>
+        <v>0.1041908974362902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H12">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I12">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J12">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.633267873615</v>
+        <v>108.2550863333333</v>
       </c>
       <c r="N12">
-        <v>105.633267873615</v>
+        <v>324.765259</v>
       </c>
       <c r="O12">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="P12">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="Q12">
-        <v>1932.545658803442</v>
+        <v>1.540000773149222</v>
       </c>
       <c r="R12">
-        <v>1932.545658803442</v>
+        <v>13.860006958343</v>
       </c>
       <c r="S12">
-        <v>0.028817870089602</v>
+        <v>2.164860550093256E-05</v>
       </c>
       <c r="T12">
-        <v>0.028817870089602</v>
+        <v>2.164860550093256E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H13">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I13">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J13">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>281.278201979299</v>
+        <v>284.3623303333333</v>
       </c>
       <c r="N13">
-        <v>281.278201979299</v>
+        <v>853.0869909999999</v>
       </c>
       <c r="O13">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="P13">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="Q13">
-        <v>5145.944824896473</v>
+        <v>4.045243723878555</v>
       </c>
       <c r="R13">
-        <v>5145.944824896473</v>
+        <v>36.40719351490699</v>
       </c>
       <c r="S13">
-        <v>0.07673566147148367</v>
+        <v>5.686613088789957E-05</v>
       </c>
       <c r="T13">
-        <v>0.07673566147148367</v>
+        <v>5.686613088789957E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H14">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I14">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J14">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>177.557448322067</v>
+        <v>178.4792176666666</v>
       </c>
       <c r="N14">
-        <v>177.557448322067</v>
+        <v>535.437653</v>
       </c>
       <c r="O14">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="P14">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="Q14">
-        <v>3248.388342520791</v>
+        <v>2.538985857453444</v>
       </c>
       <c r="R14">
-        <v>3248.388342520791</v>
+        <v>22.850872717081</v>
       </c>
       <c r="S14">
-        <v>0.04843954544044382</v>
+        <v>3.569186727617998E-05</v>
       </c>
       <c r="T14">
-        <v>0.04843954544044382</v>
+        <v>3.569186727617999E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H15">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I15">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J15">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>158.530890115239</v>
+        <v>165.0353776666667</v>
       </c>
       <c r="N15">
-        <v>158.530890115239</v>
+        <v>495.106133</v>
       </c>
       <c r="O15">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="P15">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="Q15">
-        <v>2900.30015775906</v>
+        <v>2.347738270893445</v>
       </c>
       <c r="R15">
-        <v>2900.30015775906</v>
+        <v>21.129644438041</v>
       </c>
       <c r="S15">
-        <v>0.04324889959852364</v>
+        <v>3.300339878536468E-05</v>
       </c>
       <c r="T15">
-        <v>0.04324889959852364</v>
+        <v>3.300339878536468E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01422566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.042677</v>
+      </c>
+      <c r="I16">
+        <v>0.0001722140935329982</v>
+      </c>
+      <c r="J16">
+        <v>0.0001722140935329982</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>125.0343833333333</v>
+      </c>
+      <c r="N16">
+        <v>375.10315</v>
+      </c>
+      <c r="O16">
+        <v>0.145191897885119</v>
+      </c>
+      <c r="P16">
+        <v>0.145191897885119</v>
+      </c>
+      <c r="Q16">
+        <v>1.778697459172222</v>
+      </c>
+      <c r="R16">
+        <v>16.00827713255</v>
+      </c>
+      <c r="S16">
+        <v>2.500409108262141E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.500409108262141E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H17">
+        <v>59.824325</v>
+      </c>
+      <c r="I17">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J17">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>108.2550863333333</v>
+      </c>
+      <c r="N17">
+        <v>324.765259</v>
+      </c>
+      <c r="O17">
+        <v>0.125707513576898</v>
+      </c>
+      <c r="P17">
+        <v>0.125707513576898</v>
+      </c>
+      <c r="Q17">
+        <v>2158.76248923613</v>
+      </c>
+      <c r="R17">
+        <v>19428.86240312517</v>
+      </c>
+      <c r="S17">
+        <v>0.03034686625781047</v>
+      </c>
+      <c r="T17">
+        <v>0.03034686625781047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H18">
+        <v>59.824325</v>
+      </c>
+      <c r="I18">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J18">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>284.3623303333333</v>
+      </c>
+      <c r="N18">
+        <v>853.0869909999999</v>
+      </c>
+      <c r="O18">
+        <v>0.3302060227550619</v>
+      </c>
+      <c r="P18">
+        <v>0.3302060227550619</v>
+      </c>
+      <c r="Q18">
+        <v>5670.594822539563</v>
+      </c>
+      <c r="R18">
+        <v>51035.35340285607</v>
+      </c>
+      <c r="S18">
+        <v>0.07971455106334191</v>
+      </c>
+      <c r="T18">
+        <v>0.07971455106334191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>18.2948582175422</v>
-      </c>
-      <c r="H16">
-        <v>18.2948582175422</v>
-      </c>
-      <c r="I16">
-        <v>0.2293462858308724</v>
-      </c>
-      <c r="J16">
-        <v>0.2293462858308724</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>117.679866219542</v>
-      </c>
-      <c r="N16">
-        <v>117.679866219542</v>
-      </c>
-      <c r="O16">
-        <v>0.1399818144624068</v>
-      </c>
-      <c r="P16">
-        <v>0.1399818144624068</v>
-      </c>
-      <c r="Q16">
-        <v>2152.936467545855</v>
-      </c>
-      <c r="R16">
-        <v>2152.936467545855</v>
-      </c>
-      <c r="S16">
-        <v>0.03210430923081929</v>
-      </c>
-      <c r="T16">
-        <v>0.03210430923081929</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H19">
+        <v>59.824325</v>
+      </c>
+      <c r="I19">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J19">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>178.4792176666666</v>
+      </c>
+      <c r="N19">
+        <v>535.437653</v>
+      </c>
+      <c r="O19">
+        <v>0.2072528824090754</v>
+      </c>
+      <c r="P19">
+        <v>0.2072528824090754</v>
+      </c>
+      <c r="Q19">
+        <v>3559.132907812136</v>
+      </c>
+      <c r="R19">
+        <v>32032.19617030922</v>
+      </c>
+      <c r="S19">
+        <v>0.05003261400255539</v>
+      </c>
+      <c r="T19">
+        <v>0.0500326140025554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H20">
+        <v>59.824325</v>
+      </c>
+      <c r="I20">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J20">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>165.0353776666667</v>
+      </c>
+      <c r="N20">
+        <v>495.106133</v>
+      </c>
+      <c r="O20">
+        <v>0.1916416833738457</v>
+      </c>
+      <c r="P20">
+        <v>0.1916416833738457</v>
+      </c>
+      <c r="Q20">
+        <v>3291.043356676136</v>
+      </c>
+      <c r="R20">
+        <v>29619.39021008522</v>
+      </c>
+      <c r="S20">
+        <v>0.04626393736767492</v>
+      </c>
+      <c r="T20">
+        <v>0.04626393736767492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H21">
+        <v>59.824325</v>
+      </c>
+      <c r="I21">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J21">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>125.0343833333333</v>
+      </c>
+      <c r="N21">
+        <v>375.10315</v>
+      </c>
+      <c r="O21">
+        <v>0.145191897885119</v>
+      </c>
+      <c r="P21">
+        <v>0.145191897885119</v>
+      </c>
+      <c r="Q21">
+        <v>2493.365861569306</v>
+      </c>
+      <c r="R21">
+        <v>22440.29275412375</v>
+      </c>
+      <c r="S21">
+        <v>0.03505056286187747</v>
+      </c>
+      <c r="T21">
+        <v>0.03505056286187748</v>
       </c>
     </row>
   </sheetData>
